--- a/Foodies_IssuesList.xlsx
+++ b/Foodies_IssuesList.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Foodie_IssuesSheet_V1.1" sheetId="1" r:id="rId1"/>
-    <sheet name="Peer Review Comments" sheetId="2" r:id="rId2"/>
-    <sheet name="Revision History" sheetId="3" r:id="rId3"/>
+    <sheet name="Revision History" sheetId="3" r:id="rId2"/>
+    <sheet name="Peer Review Comments" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Issues List</t>
   </si>
@@ -42,20 +42,77 @@
     <t>Foodie_IS_001</t>
   </si>
   <si>
-    <t xml:space="preserve">Sunday and Monday were holidays so we couldn't make any meetings or working </t>
-  </si>
-  <si>
     <t>working more hours during the week</t>
   </si>
   <si>
-    <t>Opend</t>
+    <t>Sunday and Monday were holidays so we couldn't make any meetings or work</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Foodie_IS_002</t>
+  </si>
+  <si>
+    <t>Foodie_IS_003</t>
+  </si>
+  <si>
+    <t>Foodie_IS_004</t>
+  </si>
+  <si>
+    <t>Foodie_IS_005</t>
+  </si>
+  <si>
+    <t>answers to the SIQ sheet that was sent by the customer came late</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Configuration management tool misconfiguration, lead to loss of files</t>
+  </si>
+  <si>
+    <t>versioning and naming conventions were not well planned</t>
+  </si>
+  <si>
+    <t>several amendments to different types of documents were made</t>
+  </si>
+  <si>
+    <t>Decisions made on the project lifecycle changed multiple times</t>
+  </si>
+  <si>
+    <t>re-configuring the repository using local copies of the files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team held a meeting to decide on a naming convention </t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>Initial creation</t>
+  </si>
+  <si>
+    <t>Aya Hamdy</t>
+  </si>
+  <si>
+    <t>Maryam M.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,8 +127,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,8 +156,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -93,35 +171,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -137,9 +248,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -149,7 +258,9 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -169,13 +280,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:F13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A4:F13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A4:F13"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="2"/>
-    <tableColumn id="2" name="Description" dataDxfId="3"/>
-    <tableColumn id="3" name="Corrective Action" dataDxfId="7"/>
-    <tableColumn id="4" name="Start Day" dataDxfId="6"/>
+    <tableColumn id="1" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" name="Description" dataDxfId="4"/>
+    <tableColumn id="3" name="Corrective Action" dataDxfId="3"/>
+    <tableColumn id="4" name="Start Day" dataDxfId="2"/>
     <tableColumn id="5" name="End Day" dataDxfId="1"/>
     <tableColumn id="6" name="Status" dataDxfId="0"/>
   </tableColumns>
@@ -470,161 +581,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G1:G1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" customWidth="1"/>
     <col min="3" max="3" width="33.85546875" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="6" customWidth="1"/>
     <col min="7" max="7" width="8" hidden="1" customWidth="1"/>
     <col min="8" max="15" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>43583</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="7"/>
+    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43586</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43584</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43587</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43588</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43584</v>
+      </c>
+      <c r="E8" s="2">
+        <v>43587</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43588</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="7"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="7"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="7"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="5"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="7"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -640,12 +797,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
